--- a/biology/Histoire de la zoologie et de la botanique/Bulletin_de_l'Académie_impériale_des_sciences_de_Saint-Pétersbourg/Bulletin_de_l'Académie_impériale_des_sciences_de_Saint-Pétersbourg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Bulletin_de_l'Académie_impériale_des_sciences_de_Saint-Pétersbourg/Bulletin_de_l'Académie_impériale_des_sciences_de_Saint-Pétersbourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulletin_de_l%27Acad%C3%A9mie_imp%C3%A9riale_des_sciences_de_Saint-P%C3%A9tersbourg</t>
+          <t>Bulletin_de_l'Académie_impériale_des_sciences_de_Saint-Pétersbourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bulletin de l'Académie impériale des sciences de Saint-Pétersbourg (abréviation: Bull. Acad. Imp. Sci. Saint-Pétersbourg) est une revue scientifique pluridisciplinaire illustrée qui fut éditée à Saint-Pétersbourg.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulletin_de_l%27Acad%C3%A9mie_imp%C3%A9riale_des_sciences_de_Saint-P%C3%A9tersbourg</t>
+          <t>Bulletin_de_l'Académie_impériale_des_sciences_de_Saint-Pétersbourg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Thèmes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle comprenait des thèmes scientifiques variés: botaniques, astronomie, chimie, mathématiques, météorologie, minéralogie, physique, zoologie. Elle publiait également des articles sur les sciences humaines:
 archéologie, géographie, histoire antique, littérature antique et orientale.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bulletin_de_l%27Acad%C3%A9mie_imp%C3%A9riale_des_sciences_de_Saint-P%C3%A9tersbourg</t>
+          <t>Bulletin_de_l'Académie_impériale_des_sciences_de_Saint-Pétersbourg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle était publiée par l'Académie impériale des sciences de Saint-Pétersbourg et fit paraître trente-deux volumes.
 Elle fut précédée par le Bulletin de la Classe physico-mathématique de l'Académie impériale des sciences de Saint-Pétersbourg (1843-1859) et fut suivie par le Bulletin de l'Académie impériale des sciences de Saint-Pétersbourg, nouvelle série (1890-1894) dont le titre devint Les Nouvelles de l'Académie impériale des sciences (1894-1906).
